--- a/data/Hypocotyl_Ragdolls.xlsx
+++ b/data/Hypocotyl_Ragdolls.xlsx
@@ -1,25 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smideros/Box Sync/SharedPRR/Hypocotyl Test/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5630CC1-EC31-4079-9C83-F3953E3B7B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="460" windowWidth="22780" windowHeight="16440"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Race 1" sheetId="1" r:id="rId1"/>
     <sheet name="Race 4" sheetId="3" r:id="rId2"/>
     <sheet name="Race 3" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -211,7 +215,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -606,21 +610,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G87" sqref="G87"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="3"/>
-    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" style="3"/>
+    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -640,7 +644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -665,7 +669,7 @@
         <v>48.333333333333336</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>2</v>
       </c>
@@ -683,7 +687,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>3</v>
       </c>
@@ -699,7 +703,7 @@
       </c>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -724,7 +728,7 @@
         <v>93.939393939393938</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <v>2</v>
       </c>
@@ -742,7 +746,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>3</v>
       </c>
@@ -758,7 +762,7 @@
       </c>
       <c r="G7" s="16"/>
     </row>
-    <row r="8" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -783,7 +787,7 @@
         <v>90.277777777777786</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>2</v>
       </c>
@@ -801,7 +805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <v>3</v>
       </c>
@@ -817,7 +821,7 @@
       </c>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>4</v>
       </c>
@@ -842,7 +846,7 @@
         <v>76.666666666666671</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <v>2</v>
       </c>
@@ -860,7 +864,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <v>3</v>
       </c>
@@ -876,7 +880,7 @@
       </c>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>5</v>
       </c>
@@ -901,7 +905,7 @@
         <v>74.848484848484844</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>2</v>
       </c>
@@ -919,7 +923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>3</v>
       </c>
@@ -935,7 +939,7 @@
       </c>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>6</v>
       </c>
@@ -960,7 +964,7 @@
         <v>44.949494949494948</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>2</v>
       </c>
@@ -978,7 +982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>3</v>
       </c>
@@ -994,7 +998,7 @@
       </c>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>7</v>
       </c>
@@ -1019,7 +1023,7 @@
         <v>75.151515151515142</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <v>2</v>
       </c>
@@ -1037,7 +1041,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="6">
         <v>3</v>
       </c>
@@ -1053,7 +1057,7 @@
       </c>
       <c r="G22" s="17"/>
     </row>
-    <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>8</v>
       </c>
@@ -1078,7 +1082,7 @@
         <v>80.909090909090921</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
         <v>2</v>
       </c>
@@ -1096,7 +1100,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="6">
         <v>3</v>
       </c>
@@ -1112,7 +1116,7 @@
       </c>
       <c r="G25" s="17"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>9</v>
       </c>
@@ -1137,7 +1141,7 @@
         <v>64.444444444444443</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>2</v>
       </c>
@@ -1155,7 +1159,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="1">
         <v>3</v>
       </c>
@@ -1171,7 +1175,7 @@
       </c>
       <c r="G28" s="13"/>
     </row>
-    <row r="29" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>10</v>
       </c>
@@ -1196,7 +1200,7 @@
         <v>83.333333333333329</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="5">
         <v>2</v>
       </c>
@@ -1214,7 +1218,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="6">
         <v>3</v>
       </c>
@@ -1230,7 +1234,7 @@
       </c>
       <c r="G31" s="17"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>11</v>
       </c>
@@ -1255,7 +1259,7 @@
         <v>60.909090909090914</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>2</v>
       </c>
@@ -1273,7 +1277,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="1">
         <v>3</v>
       </c>
@@ -1289,7 +1293,7 @@
       </c>
       <c r="G34" s="13"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>12</v>
       </c>
@@ -1314,7 +1318,7 @@
         <v>2.7777777777777772</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>2</v>
       </c>
@@ -1332,7 +1336,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B37" s="1">
         <v>3</v>
       </c>
@@ -1348,7 +1352,7 @@
       </c>
       <c r="G37" s="13"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>13</v>
       </c>
@@ -1373,7 +1377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>2</v>
       </c>
@@ -1391,7 +1395,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="1">
         <v>3</v>
       </c>
@@ -1407,7 +1411,7 @@
       </c>
       <c r="G40" s="13"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>14</v>
       </c>
@@ -1432,7 +1436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>2</v>
       </c>
@@ -1450,7 +1454,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="1">
         <v>3</v>
       </c>
@@ -1466,7 +1470,7 @@
       </c>
       <c r="G43" s="13"/>
     </row>
-    <row r="44" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>15</v>
       </c>
@@ -1491,7 +1495,7 @@
         <v>88.383838383838381</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="5">
         <v>2</v>
       </c>
@@ -1509,7 +1513,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B46" s="6">
         <v>3</v>
       </c>
@@ -1525,7 +1529,7 @@
       </c>
       <c r="G46" s="17"/>
     </row>
-    <row r="47" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>16</v>
       </c>
@@ -1550,7 +1554,7 @@
         <v>91.666666666666671</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B48" s="5">
         <v>2</v>
       </c>
@@ -1568,7 +1572,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B49" s="6">
         <v>3</v>
       </c>
@@ -1584,7 +1588,7 @@
       </c>
       <c r="G49" s="17"/>
     </row>
-    <row r="50" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>17</v>
       </c>
@@ -1609,7 +1613,7 @@
         <v>94.444444444444457</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B51" s="5">
         <v>2</v>
       </c>
@@ -1627,7 +1631,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B52" s="6">
         <v>3</v>
       </c>
@@ -1643,7 +1647,7 @@
       </c>
       <c r="G52" s="17"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>18</v>
       </c>
@@ -1668,7 +1672,7 @@
         <v>59.444444444444436</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>2</v>
       </c>
@@ -1686,7 +1690,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B55" s="1">
         <v>3</v>
       </c>
@@ -1702,7 +1706,7 @@
       </c>
       <c r="G55" s="13"/>
     </row>
-    <row r="56" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>19</v>
       </c>
@@ -1727,7 +1731,7 @@
         <v>93.888888888888872</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B57" s="5">
         <v>2</v>
       </c>
@@ -1745,7 +1749,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B58" s="6">
         <v>3</v>
       </c>
@@ -1761,7 +1765,7 @@
       </c>
       <c r="G58" s="17"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>20</v>
       </c>
@@ -1786,7 +1790,7 @@
         <v>25.454545454545457</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>2</v>
       </c>
@@ -1804,7 +1808,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B61" s="1">
         <v>3</v>
       </c>
@@ -1820,7 +1824,7 @@
       </c>
       <c r="G61" s="13"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>21</v>
       </c>
@@ -1845,7 +1849,7 @@
         <v>3.0303030303030307</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B63">
         <v>2</v>
       </c>
@@ -1863,7 +1867,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B64" s="1">
         <v>3</v>
       </c>
@@ -1879,7 +1883,7 @@
       </c>
       <c r="G64" s="13"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>22</v>
       </c>
@@ -1904,7 +1908,7 @@
         <v>38.888888888888886</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>2</v>
       </c>
@@ -1922,7 +1926,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B67" s="1">
         <v>3</v>
       </c>
@@ -1938,7 +1942,7 @@
       </c>
       <c r="G67" s="13"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>23</v>
       </c>
@@ -1963,7 +1967,7 @@
         <v>3.7037037037037037</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>2</v>
       </c>
@@ -1981,7 +1985,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B70" s="1">
         <v>3</v>
       </c>
@@ -1997,7 +2001,7 @@
       </c>
       <c r="G70" s="13"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>24</v>
       </c>
@@ -2022,7 +2026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B72">
         <v>2</v>
       </c>
@@ -2040,7 +2044,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B73" s="1">
         <v>3</v>
       </c>
@@ -2056,7 +2060,7 @@
       </c>
       <c r="G73" s="13"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>25</v>
       </c>
@@ -2081,7 +2085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B75">
         <v>2</v>
       </c>
@@ -2099,7 +2103,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B76" s="1">
         <v>3</v>
       </c>
@@ -2115,7 +2119,7 @@
       </c>
       <c r="G76" s="13"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>26</v>
       </c>
@@ -2140,7 +2144,7 @@
         <v>72.777777777777786</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B78">
         <v>2</v>
       </c>
@@ -2158,7 +2162,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B79" s="1">
         <v>3</v>
       </c>
@@ -2174,7 +2178,7 @@
       </c>
       <c r="G79" s="13"/>
     </row>
-    <row r="80" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>27</v>
       </c>
@@ -2199,7 +2203,7 @@
         <v>87.777777777777771</v>
       </c>
     </row>
-    <row r="81" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B81" s="5">
         <v>2</v>
       </c>
@@ -2217,7 +2221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B82" s="6">
         <v>3</v>
       </c>
@@ -2233,7 +2237,7 @@
       </c>
       <c r="G82" s="17"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>28</v>
       </c>
@@ -2258,7 +2262,7 @@
         <v>13.69047619047619</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B84">
         <v>2</v>
       </c>
@@ -2276,7 +2280,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B85" s="1">
         <v>3</v>
       </c>
@@ -2292,7 +2296,7 @@
       </c>
       <c r="G85" s="13"/>
     </row>
-    <row r="86" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
         <v>29</v>
       </c>
@@ -2317,7 +2321,7 @@
         <v>97.222222222222214</v>
       </c>
     </row>
-    <row r="87" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B87" s="5">
         <v>2</v>
       </c>
@@ -2335,7 +2339,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B88" s="6">
         <v>3</v>
       </c>
@@ -2351,7 +2355,7 @@
       </c>
       <c r="G88" s="17"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>30</v>
       </c>
@@ -2376,7 +2380,7 @@
         <v>6.0606060606060614</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B90">
         <v>2</v>
       </c>
@@ -2394,7 +2398,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B91" s="1">
         <v>3</v>
       </c>
@@ -2410,7 +2414,7 @@
       </c>
       <c r="G91" s="13"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1</v>
       </c>
@@ -2435,7 +2439,7 @@
         <v>3.0303030303030307</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B93">
         <v>2</v>
       </c>
@@ -2453,7 +2457,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B94" s="1">
         <v>3</v>
       </c>
@@ -2469,7 +2473,7 @@
       </c>
       <c r="G94" s="13"/>
     </row>
-    <row r="95" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
         <v>2</v>
       </c>
@@ -2494,7 +2498,7 @@
         <v>84.074074074074076</v>
       </c>
     </row>
-    <row r="96" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B96" s="5">
         <v>2</v>
       </c>
@@ -2512,7 +2516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B97" s="6">
         <v>3</v>
       </c>
@@ -2528,7 +2532,7 @@
       </c>
       <c r="G97" s="17"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>3</v>
       </c>
@@ -2553,7 +2557,7 @@
         <v>3.7037037037037037</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B99">
         <v>2</v>
       </c>
@@ -2571,7 +2575,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B100" s="1">
         <v>3</v>
       </c>
@@ -2587,7 +2591,7 @@
       </c>
       <c r="G100" s="13"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>4</v>
       </c>
@@ -2612,7 +2616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B102">
         <v>2</v>
       </c>
@@ -2630,7 +2634,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="103" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B103" s="1">
         <v>3</v>
       </c>
@@ -2646,7 +2650,7 @@
       </c>
       <c r="G103" s="13"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>5</v>
       </c>
@@ -2671,7 +2675,7 @@
         <v>66.296296296296291</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B105">
         <v>2</v>
       </c>
@@ -2689,7 +2693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B106" s="1">
         <v>3</v>
       </c>
@@ -2705,7 +2709,7 @@
       </c>
       <c r="G106" s="13"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>6</v>
       </c>
@@ -2730,7 +2734,7 @@
         <v>19.894179894179896</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B108">
         <v>2</v>
       </c>
@@ -2748,7 +2752,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B109" s="1">
         <v>3</v>
       </c>
@@ -2763,7 +2767,7 @@
         <v>11.111111111111111</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>58</v>
       </c>
@@ -2775,19 +2779,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+      <selection activeCell="C71" sqref="A69:C71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2818,7 +2822,7 @@
         <v>43077</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2851,7 +2855,7 @@
         <v>43084</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>2</v>
       </c>
@@ -2874,7 +2878,7 @@
         <v>43091</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>3</v>
@@ -2893,7 +2897,7 @@
       <c r="G4" s="13"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -2919,7 +2923,7 @@
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>2</v>
       </c>
@@ -2940,7 +2944,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>3</v>
@@ -2959,7 +2963,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2985,7 +2989,7 @@
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>2</v>
       </c>
@@ -3006,7 +3010,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
         <v>3</v>
@@ -3025,7 +3029,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3051,7 +3055,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>2</v>
       </c>
@@ -3072,7 +3076,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1">
         <v>3</v>
@@ -3091,7 +3095,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>11</v>
       </c>
@@ -3117,7 +3121,7 @@
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>2</v>
       </c>
@@ -3138,7 +3142,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1">
         <v>3</v>
@@ -3157,7 +3161,7 @@
       <c r="G16" s="13"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>12</v>
       </c>
@@ -3183,7 +3187,7 @@
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>2</v>
       </c>
@@ -3202,7 +3206,7 @@
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1">
         <v>3</v>
@@ -3221,7 +3225,7 @@
       <c r="G19" s="13"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>13</v>
       </c>
@@ -3247,7 +3251,7 @@
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>2</v>
       </c>
@@ -3264,7 +3268,7 @@
       <c r="G21" s="12"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1">
         <v>3</v>
@@ -3283,7 +3287,7 @@
       <c r="G22" s="13"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>14</v>
       </c>
@@ -3309,7 +3313,7 @@
       </c>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>2</v>
       </c>
@@ -3328,7 +3332,7 @@
       </c>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1">
         <v>3</v>
@@ -3347,7 +3351,7 @@
       <c r="G25" s="13"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>18</v>
       </c>
@@ -3373,7 +3377,7 @@
       </c>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>2</v>
       </c>
@@ -3394,7 +3398,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1">
         <v>3</v>
@@ -3413,7 +3417,7 @@
       <c r="G28" s="13"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>20</v>
       </c>
@@ -3439,7 +3443,7 @@
       </c>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>2</v>
       </c>
@@ -3460,7 +3464,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1">
         <v>3</v>
@@ -3479,7 +3483,7 @@
       <c r="G31" s="13"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>21</v>
       </c>
@@ -3505,7 +3509,7 @@
       </c>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>2</v>
       </c>
@@ -3524,7 +3528,7 @@
       </c>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1">
         <v>3</v>
@@ -3543,7 +3547,7 @@
       <c r="G34" s="13"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>22</v>
       </c>
@@ -3569,7 +3573,7 @@
       </c>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>2</v>
       </c>
@@ -3590,7 +3594,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1">
         <v>3</v>
@@ -3609,7 +3613,7 @@
       <c r="G37" s="13"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>23</v>
       </c>
@@ -3635,7 +3639,7 @@
       </c>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>2</v>
       </c>
@@ -3654,7 +3658,7 @@
       </c>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1">
         <v>3</v>
@@ -3673,7 +3677,7 @@
       <c r="G40" s="13"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>24</v>
       </c>
@@ -3699,7 +3703,7 @@
       </c>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>2</v>
       </c>
@@ -3718,7 +3722,7 @@
       </c>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1">
         <v>3</v>
@@ -3739,7 +3743,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>25</v>
       </c>
@@ -3765,7 +3769,7 @@
       </c>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>2</v>
       </c>
@@ -3784,7 +3788,7 @@
       </c>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1">
         <v>3</v>
@@ -3803,7 +3807,7 @@
       <c r="G46" s="13"/>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>26</v>
       </c>
@@ -3829,7 +3833,7 @@
       </c>
       <c r="H47" s="3"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>2</v>
       </c>
@@ -3848,7 +3852,7 @@
       </c>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1">
         <v>3</v>
@@ -3867,7 +3871,7 @@
       <c r="G49" s="13"/>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>28</v>
       </c>
@@ -3893,7 +3897,7 @@
       </c>
       <c r="H50" s="3"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>2</v>
       </c>
@@ -3912,7 +3916,7 @@
       </c>
       <c r="H51" s="3"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1">
         <v>3</v>
@@ -3931,7 +3935,7 @@
       <c r="G52" s="13"/>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>30</v>
       </c>
@@ -3957,7 +3961,7 @@
       </c>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>2</v>
       </c>
@@ -3976,7 +3980,7 @@
       </c>
       <c r="H54" s="3"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1">
         <v>3</v>
@@ -3995,7 +3999,7 @@
       <c r="G55" s="13"/>
       <c r="H55" s="3"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>1</v>
       </c>
@@ -4020,7 +4024,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B57">
         <v>2</v>
       </c>
@@ -4039,7 +4043,7 @@
       </c>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1">
         <v>3</v>
@@ -4058,7 +4062,7 @@
       <c r="G58" s="13"/>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>1</v>
       </c>
@@ -4083,7 +4087,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>2</v>
       </c>
@@ -4102,7 +4106,7 @@
       </c>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1">
         <v>3</v>
@@ -4121,7 +4125,7 @@
       <c r="G61" s="13"/>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>1</v>
       </c>
@@ -4144,7 +4148,7 @@
       </c>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B63">
         <v>2</v>
       </c>
@@ -4163,7 +4167,7 @@
       </c>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1">
         <v>3</v>
@@ -4182,7 +4186,7 @@
       <c r="G64" s="13"/>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B65">
         <v>1</v>
       </c>
@@ -4205,7 +4209,7 @@
       </c>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>2</v>
       </c>
@@ -4215,7 +4219,7 @@
       </c>
       <c r="H66" s="3"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1">
         <v>3</v>
@@ -4234,7 +4238,7 @@
       <c r="G67" s="13"/>
       <c r="H67" s="3"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>1</v>
       </c>
@@ -4257,7 +4261,7 @@
       </c>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>2</v>
       </c>
@@ -4276,7 +4280,7 @@
       </c>
       <c r="H69" s="3"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1">
         <v>3</v>
@@ -4295,10 +4299,10 @@
       <c r="G70" s="1"/>
       <c r="H70" s="3"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H71" s="3"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H72" s="3"/>
     </row>
   </sheetData>
@@ -4308,884 +4312,903 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="3"/>
-    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" style="3"/>
+    <col min="9" max="9" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="I1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="8">
+        <f>J2-7</f>
+        <v>43062</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2" s="10">
+        <f>(D2/E2)*100</f>
+        <v>50</v>
+      </c>
+      <c r="G2" s="12">
+        <f>(F2+F3+F4)/3</f>
+        <v>36.111111111111107</v>
+      </c>
       <c r="I2" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" s="8">
-        <f>J3-7</f>
-        <v>43062</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
+        <v>43069</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3" s="10">
+        <f t="shared" ref="F3:F28" si="0">(D3/E3)*100</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="I3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="8">
+        <f>J2+7</f>
+        <v>43076</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>12</v>
+      </c>
+      <c r="F4" s="11">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5" s="10">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G5" s="12">
+        <f>(F5+F6+F7)/3</f>
+        <v>96.969696969696955</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="F6" s="10">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1">
+        <v>11</v>
+      </c>
+      <c r="F7" s="11">
+        <f t="shared" si="0"/>
+        <v>90.909090909090907</v>
+      </c>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="D3">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="4">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4">
+        <v>12</v>
+      </c>
+      <c r="F8" s="10">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G8" s="12">
+        <f>(F8+F9+F10)/3</f>
+        <v>90.909090909090921</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+      <c r="F9" s="10">
+        <f t="shared" si="0"/>
+        <v>90.909090909090907</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1">
+        <v>11</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" si="0"/>
+        <v>81.818181818181827</v>
+      </c>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G11" s="12">
+        <f>(F11+F12+F13)/3</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1">
+        <v>10</v>
+      </c>
+      <c r="F13" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="4">
+        <v>11</v>
+      </c>
+      <c r="E14" s="4">
+        <v>11</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G14" s="12">
+        <f>(F14+F15+F16)/3</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4">
+        <v>7</v>
+      </c>
+      <c r="E15" s="4">
+        <v>7</v>
+      </c>
+      <c r="F15" s="10">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1">
         <v>6</v>
       </c>
-      <c r="E3">
+      <c r="E16" s="1">
+        <v>6</v>
+      </c>
+      <c r="F16" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>12</v>
       </c>
-      <c r="F3" s="10">
-        <f>(D3/E3)*100</f>
-        <v>50</v>
-      </c>
-      <c r="G3" s="12">
-        <f>(F3+F4+F5)/3</f>
-        <v>36.111111111111107</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" s="8">
-        <v>43069</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>9</v>
-      </c>
-      <c r="F4" s="10">
-        <f t="shared" ref="F4:F29" si="0">(D4/E4)*100</f>
-        <v>33.333333333333329</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="I4" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="8">
-        <f>J3+7</f>
-        <v>43076</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
         <v>12</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F17" s="10">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6">
+      <c r="G17" s="12">
+        <f>(F17+F18+F19)/3</f>
+        <v>16.203703703703706</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>9</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" si="0"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
         <v>8</v>
       </c>
-      <c r="E6">
-        <v>8</v>
-      </c>
-      <c r="F6" s="10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="G6" s="12">
-        <f>(F6+F7+F8)/3</f>
-        <v>96.969696969696955</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="D7">
+      <c r="F19" s="11">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="4">
+        <v>4</v>
+      </c>
+      <c r="E20" s="4">
         <v>11</v>
       </c>
-      <c r="E7">
-        <v>11</v>
-      </c>
-      <c r="F7" s="10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1">
-        <v>11</v>
-      </c>
-      <c r="F8" s="11">
-        <f t="shared" si="0"/>
-        <v>90.909090909090907</v>
-      </c>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="4">
-        <v>12</v>
-      </c>
-      <c r="E9" s="4">
-        <v>12</v>
-      </c>
-      <c r="F9" s="10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="G9" s="12">
-        <f>(F9+F10+F11)/3</f>
-        <v>90.909090909090921</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>11</v>
-      </c>
-      <c r="F10" s="10">
-        <f t="shared" si="0"/>
-        <v>90.909090909090907</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1">
-        <v>9</v>
-      </c>
-      <c r="E11" s="1">
-        <v>11</v>
-      </c>
-      <c r="F11" s="11">
-        <f t="shared" si="0"/>
-        <v>81.818181818181827</v>
-      </c>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12">
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <v>8</v>
-      </c>
-      <c r="F12" s="10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="G12" s="12">
-        <f>(F12+F13+F14)/3</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
-      <c r="E13">
-        <v>10</v>
-      </c>
-      <c r="F13" s="10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1">
-        <v>10</v>
-      </c>
-      <c r="E14" s="1">
-        <v>10</v>
-      </c>
-      <c r="F14" s="11">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>11</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="4">
-        <v>11</v>
-      </c>
-      <c r="E15" s="4">
-        <v>11</v>
-      </c>
-      <c r="F15" s="10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="G15" s="12">
-        <f>(F15+F16+F17)/3</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="D16" s="4">
-        <v>7</v>
-      </c>
-      <c r="E16" s="4">
-        <v>7</v>
-      </c>
-      <c r="F16" s="10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1">
-        <v>3</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1">
-        <v>6</v>
-      </c>
-      <c r="E17" s="1">
-        <v>6</v>
-      </c>
-      <c r="F17" s="11">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="G17" s="13"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>12</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18">
-        <v>12</v>
-      </c>
-      <c r="F18" s="10">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="G18" s="12">
-        <f>(F18+F19+F20)/3</f>
-        <v>16.203703703703706</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>9</v>
-      </c>
-      <c r="F19" s="10">
-        <f t="shared" si="0"/>
-        <v>11.111111111111111</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1">
-        <v>3</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>8</v>
-      </c>
-      <c r="F20" s="11">
-        <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>13</v>
-      </c>
+      <c r="F20" s="10">
+        <f t="shared" si="0"/>
+        <v>36.363636363636367</v>
+      </c>
+      <c r="G20" s="12">
+        <f>(F20+F21+F22)/3</f>
+        <v>23.232323232323228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D21" s="4">
         <v>4</v>
       </c>
       <c r="E21" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" s="10">
         <f t="shared" si="0"/>
-        <v>36.363636363636367</v>
-      </c>
-      <c r="G21" s="12">
-        <f>(F21+F22+F23)/3</f>
-        <v>23.232323232323228</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="D22" s="4">
-        <v>4</v>
-      </c>
-      <c r="E22" s="4">
-        <v>12</v>
-      </c>
-      <c r="F22" s="10">
-        <f t="shared" si="0"/>
         <v>33.333333333333329</v>
       </c>
-      <c r="G22" s="12"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1">
-        <v>3</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
         <v>8</v>
       </c>
-      <c r="F23" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="13"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="F22" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>14</v>
       </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4">
+        <v>8</v>
+      </c>
+      <c r="F23" s="10">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="G23" s="12">
+        <f>(F23+F24+F25)/3</f>
+        <v>11.574074074074074</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="4">
         <v>8</v>
       </c>
       <c r="F24" s="10">
         <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="G24" s="12">
-        <f>(F24+F25+F26)/3</f>
-        <v>11.574074074074074</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0</v>
-      </c>
-      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>9</v>
+      </c>
+      <c r="F25" s="11">
+        <f t="shared" si="0"/>
+        <v>22.222222222222221</v>
+      </c>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>18</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G26" s="12">
+        <f>(F26+F27+F28)/3</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>9</v>
+      </c>
+      <c r="E27">
+        <v>9</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1">
+        <v>10</v>
+      </c>
+      <c r="E28" s="1">
+        <v>10</v>
+      </c>
+      <c r="F28" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
+      </c>
+      <c r="E29">
         <v>8</v>
       </c>
-      <c r="F25" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="12" t="s">
+      <c r="F29" s="10">
+        <f t="shared" ref="F29:F31" si="1">(D29/E29)*100</f>
+        <v>87.5</v>
+      </c>
+      <c r="G29" s="12">
+        <f>(F29+F30+F31)/3</f>
+        <v>72.976190476190482</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>7</v>
+      </c>
+      <c r="F30" s="10">
+        <f t="shared" si="1"/>
+        <v>71.428571428571431</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1">
+        <v>6</v>
+      </c>
+      <c r="E31" s="1">
+        <v>10</v>
+      </c>
+      <c r="F31" s="11">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1">
-        <v>3</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1">
-        <v>2</v>
-      </c>
-      <c r="E26" s="1">
-        <v>9</v>
-      </c>
-      <c r="F26" s="11">
-        <f t="shared" si="0"/>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>9</v>
+      </c>
+      <c r="F32" s="10">
+        <f>(D32/E32)*100</f>
         <v>22.222222222222221</v>
       </c>
-      <c r="G26" s="13"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>18</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27">
-        <v>10</v>
-      </c>
-      <c r="E27">
-        <v>10</v>
-      </c>
-      <c r="F27" s="10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="G27" s="12">
-        <f>(F27+F28+F29)/3</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="D28">
-        <v>9</v>
-      </c>
-      <c r="E28">
-        <v>9</v>
-      </c>
-      <c r="F28" s="10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1">
-        <v>3</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1">
-        <v>10</v>
-      </c>
-      <c r="E29" s="1">
-        <v>10</v>
-      </c>
-      <c r="F29" s="11">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="G29" s="13"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>20</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30">
+      <c r="G32" s="12">
+        <f>(F32+F33+F34)/3</f>
+        <v>17.407407407407408</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
         <v>7</v>
-      </c>
-      <c r="E30">
-        <v>8</v>
-      </c>
-      <c r="F30" s="10">
-        <f t="shared" ref="F30:F32" si="1">(D30/E30)*100</f>
-        <v>87.5</v>
-      </c>
-      <c r="G30" s="12">
-        <f>(F30+F31+F32)/3</f>
-        <v>72.976190476190482</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="D31">
-        <v>5</v>
-      </c>
-      <c r="E31">
-        <v>7</v>
-      </c>
-      <c r="F31" s="10">
-        <f t="shared" si="1"/>
-        <v>71.428571428571431</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1">
-        <v>3</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1">
-        <v>6</v>
-      </c>
-      <c r="E32" s="1">
-        <v>10</v>
-      </c>
-      <c r="F32" s="11">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="G32" s="13"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>21</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="E33">
-        <v>9</v>
       </c>
       <c r="F33" s="10">
         <f>(D33/E33)*100</f>
-        <v>22.222222222222221</v>
-      </c>
-      <c r="G33" s="12">
-        <f>(F33+F34+F35)/3</f>
-        <v>17.407407407407408</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>7</v>
-      </c>
-      <c r="F34" s="10">
+        <v>0</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1">
+        <v>3</v>
+      </c>
+      <c r="E34" s="1">
+        <v>10</v>
+      </c>
+      <c r="F34" s="11">
         <f>(D34/E34)*100</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1">
-        <v>3</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1">
-        <v>3</v>
-      </c>
-      <c r="E35" s="1">
-        <v>10</v>
-      </c>
-      <c r="F35" s="11">
+        <v>30</v>
+      </c>
+      <c r="G34" s="13"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>22</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35">
+        <v>11</v>
+      </c>
+      <c r="E35">
+        <v>11</v>
+      </c>
+      <c r="F35" s="10">
         <f>(D35/E35)*100</f>
-        <v>30</v>
-      </c>
-      <c r="G35" s="13"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>22</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G35" s="12">
+        <f>(F35+F36+F37)/3</f>
+        <v>88.636363636363626</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="D36">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E36">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" s="10">
         <f>(D36/E36)*100</f>
-        <v>100</v>
-      </c>
-      <c r="G36" s="12">
-        <f>(F36+F37+F38)/3</f>
-        <v>88.636363636363626</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B37">
-        <v>2</v>
-      </c>
-      <c r="D37">
-        <v>9</v>
-      </c>
-      <c r="E37">
-        <v>12</v>
-      </c>
-      <c r="F37" s="10">
-        <f>(D37/E37)*100</f>
         <v>75</v>
       </c>
-      <c r="G37" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H37" s="3" t="s">
+      <c r="G36" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1">
-        <v>3</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1">
-        <v>10</v>
-      </c>
-      <c r="E38" s="1">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1">
+        <v>3</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1">
+        <v>10</v>
+      </c>
+      <c r="E37" s="1">
         <v>11</v>
       </c>
-      <c r="F38" s="11">
-        <f t="shared" ref="F38:F71" si="2">(D38/E38)*100</f>
+      <c r="F37" s="11">
+        <f t="shared" ref="F37:F70" si="2">(D37/E37)*100</f>
         <v>90.909090909090907</v>
       </c>
-      <c r="G38" s="13"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="G37" s="13"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38">
         <v>23</v>
       </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>9</v>
+      </c>
+      <c r="F38" s="10">
+        <f t="shared" si="2"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="G38" s="12">
+        <f>(F38+F39+F40)/3</f>
+        <v>7.8703703703703702</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F39" s="10">
         <f t="shared" si="2"/>
-        <v>11.111111111111111</v>
-      </c>
-      <c r="G39" s="12">
-        <f>(F39+F40+F41)/3</f>
-        <v>7.8703703703703702</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B40">
-        <v>2</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>6</v>
-      </c>
-      <c r="F40" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1">
-        <v>3</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1">
-        <v>1</v>
-      </c>
-      <c r="E41" s="1">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1">
+        <v>3</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1">
         <v>8</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F40" s="11">
         <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
-      <c r="G41" s="13"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="G40" s="13"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41">
         <v>24</v>
       </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>9</v>
+      </c>
+      <c r="F41" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="12">
+        <f>(F41+F42+F43)/3</f>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -5197,239 +5220,239 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G42" s="12">
-        <f>(F42+F43+F44)/3</f>
-        <v>3.3333333333333335</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B43">
-        <v>2</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>9</v>
-      </c>
-      <c r="F43" s="10">
+      <c r="G42" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1">
+        <v>3</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1">
+        <v>10</v>
+      </c>
+      <c r="F43" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1">
-        <v>3</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1">
-        <v>1</v>
-      </c>
-      <c r="E44" s="1">
-        <v>10</v>
-      </c>
-      <c r="F44" s="11">
+        <v>10</v>
+      </c>
+      <c r="G43" s="13"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>25</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>7</v>
+      </c>
+      <c r="F44" s="10">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G44" s="13"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G44" s="12">
+        <f>(F44+F45+F46)/3</f>
+        <v>4.7619047619047619</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45">
         <v>7</v>
       </c>
       <c r="F45" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="12">
-        <f>(F45+F46+F47)/3</f>
-        <v>4.7619047619047619</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B46">
-        <v>2</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>7</v>
-      </c>
-      <c r="F46" s="10">
+        <v>14.285714285714285</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1">
+        <v>3</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>9</v>
+      </c>
+      <c r="F46" s="11">
         <f t="shared" si="2"/>
-        <v>14.285714285714285</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1">
-        <v>3</v>
-      </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1">
-        <v>0</v>
-      </c>
-      <c r="E47" s="1">
-        <v>9</v>
-      </c>
-      <c r="F47" s="11">
+        <v>0</v>
+      </c>
+      <c r="G46" s="13"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>26</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47">
+        <v>9</v>
+      </c>
+      <c r="E47">
+        <v>12</v>
+      </c>
+      <c r="F47" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="13"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>26</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G47" s="12">
+        <f>(F47+F48+F49)/3</f>
+        <v>75.462962962962962</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E48">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F48" s="10">
         <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="G48" s="12">
-        <f>(F48+F49+F50)/3</f>
-        <v>75.462962962962962</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B49">
-        <v>2</v>
-      </c>
-      <c r="D49">
+        <v>88.888888888888886</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1">
+        <v>3</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1">
+        <v>5</v>
+      </c>
+      <c r="E49" s="1">
         <v>8</v>
       </c>
-      <c r="E49">
-        <v>9</v>
-      </c>
-      <c r="F49" s="10">
-        <f t="shared" si="2"/>
-        <v>88.888888888888886</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1">
-        <v>3</v>
-      </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1">
-        <v>5</v>
-      </c>
-      <c r="E50" s="1">
-        <v>8</v>
-      </c>
-      <c r="F50" s="11">
+      <c r="F49" s="11">
         <f t="shared" si="2"/>
         <v>62.5</v>
       </c>
-      <c r="G50" s="13"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51">
+      <c r="G49" s="13"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50">
         <v>28</v>
       </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>10</v>
+      </c>
+      <c r="F50" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="12">
+        <f>(F50+F51+F52)/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F51" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G51" s="12">
-        <f>(F51+F52+F53)/3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B52">
-        <v>2</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>7</v>
-      </c>
-      <c r="F52" s="10">
+      <c r="G51" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1">
+        <v>3</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>10</v>
+      </c>
+      <c r="F52" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G52" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1">
-        <v>3</v>
-      </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1">
-        <v>0</v>
-      </c>
-      <c r="E53" s="1">
-        <v>10</v>
-      </c>
-      <c r="F53" s="11">
+      <c r="G52" s="13"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>30</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>8</v>
+      </c>
+      <c r="F53" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G53" s="13"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>30</v>
-      </c>
+        <v>12.5</v>
+      </c>
+      <c r="G53" s="12">
+        <f>(F53+F54+F55)/3</f>
+        <v>13.888888888888888</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -5441,348 +5464,329 @@
         <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
-      <c r="G54" s="12">
-        <f>(F54+F55+F56)/3</f>
-        <v>13.888888888888888</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B55">
-        <v>2</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55">
+      <c r="G54" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1">
+        <v>3</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1">
+        <v>6</v>
+      </c>
+      <c r="F55" s="11">
+        <f t="shared" si="2"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="G55" s="13"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>12</v>
+      </c>
+      <c r="F56" s="10">
+        <f t="shared" si="2"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="G56" s="12">
+        <f>(F56+F57+F58)/3</f>
+        <v>15.993265993265993</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>11</v>
+      </c>
+      <c r="F57" s="10">
+        <f t="shared" si="2"/>
+        <v>9.0909090909090917</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1">
+        <v>3</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1">
+        <v>2</v>
+      </c>
+      <c r="E58" s="1">
+        <v>9</v>
+      </c>
+      <c r="F58" s="11">
+        <f t="shared" si="2"/>
+        <v>22.222222222222221</v>
+      </c>
+      <c r="G58" s="13"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>42</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <v>11</v>
+      </c>
+      <c r="F59" s="10">
+        <f t="shared" si="2"/>
+        <v>27.27272727272727</v>
+      </c>
+      <c r="G59" s="12">
+        <f>(F59+F60+F61)/3</f>
+        <v>42.424242424242422</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <v>4</v>
+      </c>
+      <c r="E60">
+        <v>9</v>
+      </c>
+      <c r="F60" s="10">
+        <f t="shared" si="2"/>
+        <v>44.444444444444443</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1">
+        <v>3</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1">
+        <v>5</v>
+      </c>
+      <c r="E61" s="1">
+        <v>9</v>
+      </c>
+      <c r="F61" s="11">
+        <f t="shared" si="2"/>
+        <v>55.555555555555557</v>
+      </c>
+      <c r="G61" s="13"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>43</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>12</v>
+      </c>
+      <c r="F62" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G62" s="12">
+        <f>(F62+F63+F64)/3</f>
+        <v>7.8703703703703702</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>9</v>
+      </c>
+      <c r="F63" s="10">
+        <f t="shared" si="2"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1">
+        <v>3</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1">
+        <v>1</v>
+      </c>
+      <c r="E64" s="1">
         <v>8</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F64" s="11">
         <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
-      <c r="G55" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1">
-        <v>3</v>
-      </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1">
-        <v>1</v>
-      </c>
-      <c r="E56" s="1">
+      <c r="G64" s="13"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>44</v>
+      </c>
+      <c r="D65">
+        <v>11</v>
+      </c>
+      <c r="E65">
+        <v>12</v>
+      </c>
+      <c r="F65" s="10">
+        <f t="shared" si="2"/>
+        <v>91.666666666666657</v>
+      </c>
+      <c r="G65" s="12">
+        <f>(F65+F66+F67)/3</f>
+        <v>89.814814814814824</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>9</v>
+      </c>
+      <c r="E66">
+        <v>9</v>
+      </c>
+      <c r="F66" s="10">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1">
+        <v>3</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1">
+        <v>7</v>
+      </c>
+      <c r="E67" s="1">
+        <v>9</v>
+      </c>
+      <c r="F67" s="11">
+        <f t="shared" si="2"/>
+        <v>77.777777777777786</v>
+      </c>
+      <c r="G67" s="13"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>45</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>5</v>
+      </c>
+      <c r="F68" s="10">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G68" s="12">
+        <f>(F68+F69+F70)/3</f>
+        <v>23.333333333333332</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
         <v>6</v>
       </c>
-      <c r="F56" s="11">
+      <c r="F69" s="10">
         <f t="shared" si="2"/>
         <v>16.666666666666664</v>
       </c>
-      <c r="G56" s="13"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="C57" t="s">
-        <v>40</v>
-      </c>
-      <c r="D57">
-        <v>2</v>
-      </c>
-      <c r="E57">
-        <v>12</v>
-      </c>
-      <c r="F57" s="10">
-        <f t="shared" si="2"/>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="G57" s="12">
-        <f>(F57+F58+F59)/3</f>
-        <v>15.993265993265993</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B58">
-        <v>2</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58">
-        <v>11</v>
-      </c>
-      <c r="F58" s="10">
-        <f t="shared" si="2"/>
-        <v>9.0909090909090917</v>
-      </c>
-      <c r="G58" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1">
-        <v>3</v>
-      </c>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1">
-        <v>2</v>
-      </c>
-      <c r="E59" s="1">
-        <v>9</v>
-      </c>
-      <c r="F59" s="11">
-        <f t="shared" si="2"/>
-        <v>22.222222222222221</v>
-      </c>
-      <c r="G59" s="13"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B60">
-        <v>1</v>
-      </c>
-      <c r="C60" t="s">
-        <v>42</v>
-      </c>
-      <c r="D60">
-        <v>3</v>
-      </c>
-      <c r="E60">
-        <v>11</v>
-      </c>
-      <c r="F60" s="10">
-        <f t="shared" si="2"/>
-        <v>27.27272727272727</v>
-      </c>
-      <c r="G60" s="12">
-        <f>(F60+F61+F62)/3</f>
-        <v>42.424242424242422</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B61">
-        <v>2</v>
-      </c>
-      <c r="D61">
-        <v>4</v>
-      </c>
-      <c r="E61">
-        <v>9</v>
-      </c>
-      <c r="F61" s="10">
-        <f t="shared" si="2"/>
-        <v>44.444444444444443</v>
-      </c>
-      <c r="G61" s="12" t="s">
+      <c r="G69" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1">
-        <v>3</v>
-      </c>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1">
-        <v>5</v>
-      </c>
-      <c r="E62" s="1">
-        <v>9</v>
-      </c>
-      <c r="F62" s="11">
-        <f t="shared" si="2"/>
-        <v>55.555555555555557</v>
-      </c>
-      <c r="G62" s="13"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63" t="s">
-        <v>43</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <v>12</v>
-      </c>
-      <c r="F63" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G63" s="12">
-        <f>(F63+F64+F65)/3</f>
-        <v>7.8703703703703702</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B64">
-        <v>2</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64">
-        <v>9</v>
-      </c>
-      <c r="F64" s="10">
-        <f t="shared" si="2"/>
-        <v>11.111111111111111</v>
-      </c>
-      <c r="G64" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1">
-        <v>3</v>
-      </c>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1">
-        <v>1</v>
-      </c>
-      <c r="E65" s="1">
-        <v>8</v>
-      </c>
-      <c r="F65" s="11">
-        <f t="shared" si="2"/>
-        <v>12.5</v>
-      </c>
-      <c r="G65" s="13"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="C66" t="s">
-        <v>44</v>
-      </c>
-      <c r="D66">
-        <v>11</v>
-      </c>
-      <c r="E66">
-        <v>12</v>
-      </c>
-      <c r="F66" s="10">
-        <f t="shared" si="2"/>
-        <v>91.666666666666657</v>
-      </c>
-      <c r="G66" s="12">
-        <f>(F66+F67+F68)/3</f>
-        <v>89.814814814814824</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B67">
-        <v>2</v>
-      </c>
-      <c r="D67">
-        <v>9</v>
-      </c>
-      <c r="E67">
-        <v>9</v>
-      </c>
-      <c r="F67" s="10">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="G67" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1">
-        <v>3</v>
-      </c>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1">
-        <v>7</v>
-      </c>
-      <c r="E68" s="1">
-        <v>9</v>
-      </c>
-      <c r="F68" s="11">
-        <f t="shared" si="2"/>
-        <v>77.777777777777786</v>
-      </c>
-      <c r="G68" s="13"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B69">
-        <v>1</v>
-      </c>
-      <c r="C69" t="s">
-        <v>45</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69">
-        <v>5</v>
-      </c>
-      <c r="F69" s="10">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="G69" s="12">
-        <f>(F69+F70+F71)/3</f>
-        <v>23.333333333333332</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B70">
-        <v>2</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1">
+        <v>3</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1">
+        <v>2</v>
+      </c>
+      <c r="E70" s="1">
         <v>6</v>
       </c>
-      <c r="F70" s="10">
-        <f t="shared" si="2"/>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="G70" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1">
-        <v>3</v>
-      </c>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1">
-        <v>2</v>
-      </c>
-      <c r="E71" s="1">
-        <v>6</v>
-      </c>
-      <c r="F71" s="11">
+      <c r="F70" s="11">
         <f t="shared" si="2"/>
         <v>33.333333333333329</v>
       </c>
-      <c r="G71" s="1"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="G70" s="1"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>52</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B72" t="s">
         <v>53</v>
       </c>
     </row>
